--- a/excel/nagu_testing.xlsx
+++ b/excel/nagu_testing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\casim\Desktop\Programming\Python\ProjektFredrika\projekt-fredrika\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A894B13-C725-466D-9122-179C517264B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35C9224-4F95-42B2-9FE2-1EA577398AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="2112" windowWidth="15180" windowHeight="8868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6456" yWindow="2568" windowWidth="15180" windowHeight="8868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="97">
   <si>
     <t>item</t>
   </si>
@@ -214,6 +214,108 @@
   </si>
   <si>
     <t>Ålderman, Nagu</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q24357993</t>
+  </si>
+  <si>
+    <t>Äleklobben</t>
+  </si>
+  <si>
+    <t>Point(21.77367 60.01175)</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q24455410</t>
+  </si>
+  <si>
+    <t>Äleklobbs haruna</t>
+  </si>
+  <si>
+    <t>Point(21.7725 60.01581)</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q24455333</t>
+  </si>
+  <si>
+    <t>Algrunden</t>
+  </si>
+  <si>
+    <t>Point(21.75068 60.09662)</t>
+  </si>
+  <si>
+    <t>Algrunden, Nagu</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q24455293</t>
+  </si>
+  <si>
+    <t>Alharuna</t>
+  </si>
+  <si>
+    <t>Point(21.82924 60.08352)</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q24455355</t>
+  </si>
+  <si>
+    <t>Alkläpparna</t>
+  </si>
+  <si>
+    <t>Point(21.7917 60.06648)</t>
+  </si>
+  <si>
+    <t>Alkläpparna, Nagu</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q24455142</t>
+  </si>
+  <si>
+    <t>Älör</t>
+  </si>
+  <si>
+    <t>Point(22.06594 60.06933)</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q24455112</t>
+  </si>
+  <si>
+    <t>Alören</t>
+  </si>
+  <si>
+    <t>Point(22.03903 60.11728)</t>
+  </si>
+  <si>
+    <t>Alören, Nagu</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q24339029</t>
+  </si>
+  <si>
+    <t>Alskär</t>
+  </si>
+  <si>
+    <t>Point(21.80813 59.81588)</t>
+  </si>
+  <si>
+    <t>Alskär (vid Salskärsfjärden, Nagu)</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q24358220</t>
+  </si>
+  <si>
+    <t>Point(22.028888888 59.965277777)</t>
+  </si>
+  <si>
+    <t>Alskär (vid Kobbfjärden, Nagu)</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q24359147</t>
+  </si>
+  <si>
+    <t>Älveskär</t>
+  </si>
+  <si>
+    <t>Point(21.94271 59.91583)</t>
   </si>
 </sst>
 </file>
@@ -277,13 +379,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,417 +666,477 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection sqref="A1:M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>0.02</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>0.04</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>0.06</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>0.69</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>0.02</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>0.02</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>0.01</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="A7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="A8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="A9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="A10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="A11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="A12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="A13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="A14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="A15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{99C46C40-B72F-4753-94F7-C048704EE810}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{397EB3D0-5E37-41B1-B358-305D8568B9D7}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{9398CE7D-327D-4BB3-9F3D-2DAA71472728}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{280C5360-7C96-4D2A-AB00-9486CAC23040}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{586EB42F-4A72-404E-B227-69552783C70A}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{8C368F5C-B136-49E9-AE18-1935EBB39B40}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{5424119E-DB17-4517-93EC-D25EBBF433B1}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{2E4FDDD5-89E0-4488-B3CD-1467F2ADE83D}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{7D9D6CD5-022A-4965-A1B2-056068925700}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{F6ECA28B-7085-4B46-937D-BD144024E393}"/>
+    <hyperlink ref="A12" r:id="rId11" xr:uid="{109DCD31-D8ED-4DFC-87E7-D6071B3DE9AC}"/>
+    <hyperlink ref="A13" r:id="rId12" xr:uid="{21075D23-4DD0-48AD-9A55-F0EC6E52EC2C}"/>
+    <hyperlink ref="A14" r:id="rId13" xr:uid="{20F857B6-A77B-4C54-982F-183E268E4490}"/>
+    <hyperlink ref="A15" r:id="rId14" xr:uid="{ECEC60D1-E04D-4017-B7EB-3AA7F2A2B351}"/>
+    <hyperlink ref="A16" r:id="rId15" xr:uid="{5F24B8CD-0AB8-4D65-A9C9-AECF4EF89B67}"/>
+    <hyperlink ref="A17" r:id="rId16" xr:uid="{FBDCD156-2A92-4935-9038-2DE3A5516CB4}"/>
+    <hyperlink ref="A18" r:id="rId17" xr:uid="{C1C371D4-07C5-406D-93F6-6F28EE53B8D6}"/>
+    <hyperlink ref="A19" r:id="rId18" xr:uid="{0A8FC261-B90C-4C38-8128-16B7B83F225F}"/>
+    <hyperlink ref="A20" r:id="rId19" xr:uid="{6784DD19-19A7-4325-812E-6098E55A4DD6}"/>
+    <hyperlink ref="A21" r:id="rId20" xr:uid="{A2771751-8FAB-4CB9-896F-A3B6E9C7A3FD}"/>
+    <hyperlink ref="A22" r:id="rId21" xr:uid="{446EFFFB-F4F8-448A-9A16-0F5558CB618A}"/>
+    <hyperlink ref="A23" r:id="rId22" xr:uid="{EC34F98C-C163-4C39-B8C3-2D99F31E5ABD}"/>
+    <hyperlink ref="A24" r:id="rId23" xr:uid="{A83A5B8B-1B4C-4AE2-8F54-4D70B0B79BAA}"/>
+    <hyperlink ref="A25" r:id="rId24" xr:uid="{AAE7A1CC-C23A-4831-8D14-F909C7ACE40B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
